--- a/Pandas/Student file.xlsx
+++ b/Pandas/Student file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Higher Studies\BUET Poject\Ansary Sir\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E5DB7C-08D5-4815-884B-1D204C067CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6999DC04-9A59-4029-AAC7-685128C07BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
-  <si>
-    <t>Student Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>ID Number</t>
   </si>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>Jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,26 +444,29 @@
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>2023001</v>
@@ -469,15 +475,18 @@
         <v>3.8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>2023002</v>
@@ -486,15 +495,18 @@
         <v>3.5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>2023003</v>
@@ -503,15 +515,18 @@
         <v>3.9</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>2023004</v>
@@ -520,15 +535,18 @@
         <v>3.6</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>2023005</v>
@@ -537,15 +555,18 @@
         <v>3.7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>2023006</v>
@@ -554,15 +575,18 @@
         <v>3.4</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>2023007</v>
@@ -571,15 +595,18 @@
         <v>3.3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>2023008</v>
@@ -588,15 +615,18 @@
         <v>3.5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>2023009</v>
@@ -605,15 +635,18 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>2023010</v>
@@ -622,10 +655,13 @@
         <v>3.2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Pandas/Student file.xlsx
+++ b/Pandas/Student file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Higher Studies\BUET Poject\Ansary Sir\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6999DC04-9A59-4029-AAC7-685128C07BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667CA994-6A26-4AA9-A571-9E4E0805703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
